--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-Л_тр_нефть/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-Л_тр_нефть/results.xlsx
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.138295277632815</v>
+        <v>4.138295277632814</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.971390866221966</v>
+        <v>3.971390866221967</v>
       </c>
     </row>
   </sheetData>
